--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2101076.692596633</v>
+        <v>2227651.360851383</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18097667.66179886</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771604.572050063</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5228153.719363605</v>
+        <v>5631355.774677479</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>327.2879775827832</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>90.33079699604612</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -823,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>117.6708764049916</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>209.5867542297959</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>276.9980351204287</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>40.49755457282772</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>217.2891245976628</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>47.89100534301195</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,10 +1147,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>73.7831163484463</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>287.2888173095577</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>35.51678257079473</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.0231447720472</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.4914619056499</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>105.462690069043</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513547</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948857</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.4914619056499</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>152.8474034491069</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775142</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>161.488702734601</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3320,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>35.20092700999453</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394174</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3661,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>137.5563529521253</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>154.2568797019914</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>107.4059292302419</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.48898701015895</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E44" t="n">
-        <v>285.9794909782348</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>61.23284287475803</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,13 +4194,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>154.7429394224636</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.7810113893163</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>922.6789426131436</v>
+        <v>418.0989517035833</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>983.2858974937626</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y2" t="n">
-        <v>979.0401778338201</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.9498980712576</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>495.3881865544826</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>329.5101937560053</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>329.5101937560053</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>152.8031397177615</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="X4" t="n">
-        <v>859.7685167902448</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.7685167902448</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.7581132933927</v>
+        <v>2075.67376259375</v>
       </c>
       <c r="C5" t="n">
-        <v>427.9621182222527</v>
+        <v>1637.531289777173</v>
       </c>
       <c r="D5" t="n">
-        <v>396.0927374371013</v>
+        <v>1201.621504951618</v>
       </c>
       <c r="E5" t="n">
-        <v>366.3583966358005</v>
+        <v>767.846760109913</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>687.540662806093</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>1348.380717347871</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="M5" t="n">
-        <v>1348.380717347871</v>
+        <v>1273.417761384296</v>
       </c>
       <c r="N5" t="n">
-        <v>2009.22077188965</v>
+        <v>1897.518545429074</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1897.518545429074</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488303</v>
+        <v>2480.712708693218</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.341725488303</v>
+        <v>2118.095758627044</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.486270899337</v>
+        <v>2117.280708078481</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.343807478647</v>
+        <v>2102.178648698196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.057683778301</v>
+        <v>2097.932929038254</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1649.255952805704</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1649.255952805704</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.0196728252577</v>
+        <v>963.899272227186</v>
       </c>
       <c r="C7" t="n">
-        <v>794.0196728252577</v>
+        <v>791.3375607104109</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>625.4595679119336</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>455.7015641626709</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1458.649716896724</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1213.257962230137</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>985.8382915442448</v>
+        <v>963.899272227186</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.1045910388293</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>427.9621182222527</v>
+        <v>944.2701990826092</v>
       </c>
       <c r="D8" t="n">
-        <v>396.0927374371013</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4805,49 +4807,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.532426079462</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2595.532426079462</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2595.532426079462</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.647799193336</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W8" t="n">
-        <v>2119.832748644773</v>
+        <v>1828.060021424322</v>
       </c>
       <c r="X8" t="n">
-        <v>1700.690285224084</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.404161523737</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>277.7880908295411</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
         <v>1599.468199913098</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1929.619174188953</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.476701372377</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1055.566916546821</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>621.7921717051163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>193.924742114324</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>63.59833325367033</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>63.59833325367033</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>103.175689929354</v>
+        <v>205.200085969294</v>
       </c>
       <c r="K11" t="n">
-        <v>890.2050639435244</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L11" t="n">
-        <v>890.2050639435244</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M11" t="n">
-        <v>890.2050639435244</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N11" t="n">
-        <v>890.2050639435244</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O11" t="n">
-        <v>1677.234437957695</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P11" t="n">
-        <v>2464.263811971865</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3010.76259793046</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3179.916662683517</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3179.916662683517</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3179.916662683517</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.916662683517</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3179.916662683517</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2775.06120809455</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2355.918744673861</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2355.918744673861</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>569.7700782449631</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>463.3136170816054</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>63.59833325367033</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>63.59833325367033</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>63.59833325367033</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>63.59833325367033</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>152.7793467041385</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>939.8087207183089</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1726.838094732479</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1726.838094732479</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1726.838094732479</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>817.5597585455055</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>691.0739793247262</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.996544640227</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>881.434833123452</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>715.5568403249747</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>545.7988365757119</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>369.0917825374681</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>203.5005075632958</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>63.59833325367033</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2556.529193756824</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2310.649747335279</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U13" t="n">
-        <v>2032.216746588384</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>1745.261238458814</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1473.234834045106</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1473.234834045106</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1245.815163359214</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>935.5155509119518</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>497.3730780953751</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>497.3730780953751</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>63.59833325367033</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>63.59833325367033</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>63.59833325367033</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>63.59833325367033</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>63.59833325367033</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>272.3297546824109</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>272.3297546824109</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1059.359128696581</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N14" t="n">
-        <v>1846.388502710752</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O14" t="n">
-        <v>1846.388502710752</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>2633.417876724922</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3179.916662683517</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3179.916662683517</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3179.916662683517</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2959.849435556555</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2700.627132873572</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2594.099163106862</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2189.243708517895</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1770.101245097206</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1361.815121396859</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>569.7700782449631</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>463.3136170816054</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>89.66200641412793</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>414.2203313803402</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1609.66531663814</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>817.5597585455055</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>691.0739793247262</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>773.0921706712825</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C16" t="n">
-        <v>600.5304591545074</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D16" t="n">
-        <v>434.6524663560301</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E16" t="n">
-        <v>264.8944626067674</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F16" t="n">
-        <v>229.1896082278427</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G16" t="n">
-        <v>63.59833325367033</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H16" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2521.016574454467</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2275.137128032922</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>1996.704127286027</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.748619156457</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.722214742749</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.330460076161</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.9107893902697</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5503,64 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>228.5247761102239</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1303.584742363083</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2460.632577573634</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>3586.363561010081</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5585,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2595.191700773933</v>
+        <v>2701.823733979953</v>
       </c>
       <c r="T19" t="n">
-        <v>2349.312254352388</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U19" t="n">
-        <v>2070.879253605493</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.923745475924</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.897341062215</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.9010479080736</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1859.557496393248</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.53109197954</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.139337312952</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.719666627061</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="26">
@@ -6245,7 +6247,7 @@
         <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>270.2186143064091</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6472,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6549,10 +6551,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>581.9899703707711</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>405.2829163325273</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6883,19 +6885,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
         <v>1371.99516675259</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6938,10 +6940,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
         <v>2178.821488698832</v>
@@ -6962,10 +6964,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7125,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2683.363958244292</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O38" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7256,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>805.1180535919176</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>635.3600498426549</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1365.518020486595</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>927.375547670018</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>491.4657628444626</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>491.4657628444626</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>63.59833325367033</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>63.59833325367033</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>63.59833325367033</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>498.8530207065882</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1285.882394720758</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L41" t="n">
-        <v>1285.882394720758</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M41" t="n">
-        <v>1285.882394720758</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N41" t="n">
-        <v>1285.882394720758</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O41" t="n">
-        <v>1846.388502710752</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P41" t="n">
-        <v>2633.417876724922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q41" t="n">
-        <v>3179.916662683517</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3179.916662683517</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3179.916662683517</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3179.916662683517</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3024.101632681505</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3024.101632681505</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2619.246178092538</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2200.103714671849</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1791.817590971502</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>569.7700782449631</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>463.3136170816054</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>89.66200641412793</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>414.2203313803402</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1068.926378006064</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1609.66531663814</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>817.5597585455055</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>691.0739793247262</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>888.4052696660547</v>
+        <v>3205.876241053794</v>
       </c>
       <c r="C43" t="n">
-        <v>715.8435581492796</v>
+        <v>3097.385403447489</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9655653508023</v>
+        <v>2931.507410649012</v>
       </c>
       <c r="E43" t="n">
-        <v>380.2075616015396</v>
+        <v>2761.749406899749</v>
       </c>
       <c r="F43" t="n">
-        <v>203.5005075632958</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="G43" t="n">
-        <v>203.5005075632958</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="H43" t="n">
-        <v>63.59833325367033</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I43" t="n">
-        <v>63.59833325367033</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J43" t="n">
-        <v>150.1780184183602</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K43" t="n">
-        <v>424.9364729894958</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L43" t="n">
-        <v>843.1463547574568</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M43" t="n">
-        <v>1302.63022193837</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N43" t="n">
-        <v>1744.889025096014</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O43" t="n">
-        <v>2164.558274321796</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P43" t="n">
-        <v>2512.065168292138</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q43" t="n">
-        <v>2680.25794315647</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R43" t="n">
-        <v>2680.25794315647</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S43" t="n">
-        <v>2636.329673449239</v>
+        <v>4953.800644836977</v>
       </c>
       <c r="T43" t="n">
-        <v>2390.450227027694</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="U43" t="n">
-        <v>2112.017226280799</v>
+        <v>4429.488197668538</v>
       </c>
       <c r="V43" t="n">
-        <v>1825.06171815123</v>
+        <v>4142.532689538969</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.035313737521</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X43" t="n">
-        <v>1307.643559070934</v>
+        <v>3625.114530458673</v>
       </c>
       <c r="Y43" t="n">
-        <v>1080.223888385042</v>
+        <v>3397.694859772781</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.330968498262</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1907.188495681686</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1471.27871085613</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.410538150843</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>754.5431085600502</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1452771833141</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>64.01512262653033</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>498.8530207065882</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1285.882394720758</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2072.911768734929</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2464.263811971865</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N44" t="n">
-        <v>2464.263811971865</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O44" t="n">
-        <v>2464.263811971865</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P44" t="n">
-        <v>2464.263811971865</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q44" t="n">
-        <v>3010.76259793046</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3179.916662683517</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3179.916662683517</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3179.916662683517</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.916662683517</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3179.916662683517</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3179.916662683517</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3179.916662683517</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2771.63053898317</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>569.7700782449631</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>463.3136170816054</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>368.2233282281587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>274.1029135551124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>190.719075171274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>105.3339854374579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>89.66200641412793</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>414.2203313803402</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1094.953851450717</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1609.66531663814</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1726.838094732479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1663.382657180862</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1533.204013511464</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1356.867466511432</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1157.749948573432</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>972.4271943066256</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>817.5597585455055</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>691.0739793247262</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1038.629857506224</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>866.0681459894489</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>804.2167895502994</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>634.4587858010366</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>457.7517317627928</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>292.1604567886205</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>152.258282478995</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>63.59833325367033</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>150.1780184183602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>424.9364729894958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>843.1463547574568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1302.63022193837</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1744.889025096014</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2164.558274321796</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2512.065168292138</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2680.25794315647</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2658.840121861842</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2499.598753159838</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.719306738294</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.286305991399</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1975.286305991399</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1703.25990157769</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1457.868146911103</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.448476225211</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
   </sheetData>
@@ -7976,14 +7978,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8000,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>65.06686390159848</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>200.3264657984394</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.97712795523607</v>
+        <v>103.9790360591055</v>
       </c>
       <c r="K11" t="n">
-        <v>794.9791656708792</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>90.08183176814968</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8398196249905</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>794.9791656708792</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N14" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>794.9791656708792</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>127.5393291307518</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,13 +9178,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,10 +9418,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>794.9791656708792</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>566.1677858484779</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>794.9791656708792</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>794.9791656708794</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>395.3050941787233</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.3607082909216</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>35.15749310933337</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>253.5280904964687</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>35.15749310933337</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>131.238549599167</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933383</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>208.2197249473348</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>37.38363054573608</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.3731999541618</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.43016517136545</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>114.1599680048243</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>143.457506415053</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>486381.7989178768</v>
+        <v>485620.6389025683</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349632.1654249987</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349632.1654249987</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487878.1324796033</v>
+        <v>487878.1324796035</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349632.1654249987</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349632.1654249988</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="C2" t="n">
+        <v>469128.9049041075</v>
+      </c>
+      <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041076</v>
-      </c>
       <c r="E2" t="n">
-        <v>330370.5424175754</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>330370.5424175753</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="I2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="J2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="J2" t="n">
-        <v>461000.3861201832</v>
       </c>
       <c r="K2" t="n">
         <v>461000.3861201833</v>
@@ -26344,16 +26346,16 @@
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
+        <v>461000.3861201836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
         <v>461000.3861201833</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>330370.5424175753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>330370.5424175753</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>78577.04195825371</v>
+        <v>66587.76789501598</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998295</v>
       </c>
       <c r="E3" t="n">
-        <v>38057.93396911905</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>132460.165447305</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>62596.87743601672</v>
+        <v>53045.85463877237</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622427</v>
       </c>
       <c r="M3" t="n">
-        <v>31764.52845434139</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>130757.3002320199</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>19839.47169764616</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>19839.47169764616</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020262</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26450,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020275</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>19839.47169764616</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>19839.47169764616</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>48334.73327278945</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>48334.73327278945</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>48334.73327278945</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>48334.73327278945</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86080.42964671314</v>
+        <v>86080.42964671308</v>
       </c>
       <c r="C6" t="n">
-        <v>185582.0381520761</v>
+        <v>192095.6254055342</v>
       </c>
       <c r="D6" t="n">
-        <v>264159.08011033</v>
+        <v>252631.4845603469</v>
       </c>
       <c r="E6" t="n">
-        <v>224138.4034780207</v>
+        <v>173242.9595431384</v>
       </c>
       <c r="F6" t="n">
-        <v>262196.3374471397</v>
+        <v>355598.0687641881</v>
       </c>
       <c r="G6" t="n">
-        <v>223137.9033168833</v>
+        <v>355598.0687641882</v>
       </c>
       <c r="H6" t="n">
-        <v>355598.068764188</v>
+        <v>355598.0687641883</v>
       </c>
       <c r="I6" t="n">
         <v>355598.0687641882</v>
       </c>
       <c r="J6" t="n">
-        <v>244583.6034191978</v>
+        <v>244583.603419198</v>
       </c>
       <c r="K6" t="n">
-        <v>293001.1913281714</v>
+        <v>302552.2141254158</v>
       </c>
       <c r="L6" t="n">
-        <v>355598.0687641882</v>
+        <v>346205.7670375657</v>
       </c>
       <c r="M6" t="n">
-        <v>323833.5403098467</v>
+        <v>203397.8978262006</v>
       </c>
       <c r="N6" t="n">
         <v>355598.0687641882</v>
       </c>
       <c r="O6" t="n">
-        <v>262196.3374471397</v>
+        <v>355598.0687641882</v>
       </c>
       <c r="P6" t="n">
-        <v>262196.3374471397</v>
+        <v>355598.0687641882</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>794.9791656708792</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>794.9791656708792</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>794.9791656708792</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>794.9791656708792</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939396</v>
       </c>
       <c r="E4" t="n">
-        <v>127.4639590630222</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>483.2813377138662</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939396</v>
       </c>
       <c r="M4" t="n">
-        <v>127.4639590630222</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939396</v>
       </c>
       <c r="M4" t="n">
-        <v>127.4639590630222</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>483.2813377138662</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.2627093945167</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>324.6202417904363</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.26448581943903</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>59.71938613977548</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>156.7630129679823</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>216.1325250833256</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>52.0170157719086</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>177.2544686360208</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>9.032238729555061</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>71.70196325595407</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>248.5691704774791</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,14 +34698,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34720,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>65.06686390159848</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>200.3264657984394</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.97712795523607</v>
+        <v>103.9790360591055</v>
       </c>
       <c r="K11" t="n">
-        <v>794.9791656708792</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>90.08183176814968</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8398196249905</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>794.9791656708792</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N14" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>794.9791656708792</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>127.5393291307518</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,16 +35895,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,10 +36138,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36613,7 +36615,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>794.9791656708792</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>566.1677858484779</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>794.9791656708792</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>794.9791656708792</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>794.9791656708794</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>395.3050941787233</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2227651.360851383</v>
+        <v>2227126.17848235</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5631355.774677479</v>
+        <v>5631355.77467748</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>46.19026444475082</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>327.2879775827832</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>177.2701778859457</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>209.5867542297959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>309.3904672149034</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>40.49755457282772</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1062,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>27.18202484355901</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.89100534301195</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>370.93115019381</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.7831163484463</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>35.51678257079473</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704938</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>149.741131296223</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655129</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7139627068451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948857</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665312</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.92574903168972</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2064,13 +2064,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>261.39831665081</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>20.28369113775142</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>103.3456594571954</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3432,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>115.6348798138338</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700999453</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394174</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>137.5563529521253</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>107.4059292302419</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>154.7429394224636</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>1608.104601274648</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,28 +4330,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>1304.820447932477</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.820447932477</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1292.062614956869</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.67376259375</v>
+        <v>1149.598575707879</v>
       </c>
       <c r="C5" t="n">
-        <v>1637.531289777173</v>
+        <v>1115.496506931707</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.621504951618</v>
+        <v>1083.627126146555</v>
       </c>
       <c r="E5" t="n">
-        <v>767.846760109913</v>
+        <v>1053.892785345254</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>741.3771618958571</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>674.5331706342554</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1273.417761384296</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1897.518545429074</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1897.518545429074</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473852</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473852</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2217.900228530734</v>
       </c>
       <c r="U5" t="n">
-        <v>2480.712708693218</v>
+        <v>1958.677925847751</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.095758627044</v>
+        <v>1596.060975781578</v>
       </c>
       <c r="W5" t="n">
-        <v>2117.280708078481</v>
+        <v>1191.205521192611</v>
       </c>
       <c r="X5" t="n">
-        <v>2102.178648698196</v>
+        <v>1176.103461812326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2097.932929038254</v>
+        <v>1171.857742152383</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1649.255952805704</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1649.255952805704</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.899272227186</v>
+        <v>593.0357356940431</v>
       </c>
       <c r="C7" t="n">
-        <v>791.3375607104109</v>
+        <v>420.474024177268</v>
       </c>
       <c r="D7" t="n">
-        <v>625.4595679119336</v>
+        <v>254.5960313787907</v>
       </c>
       <c r="E7" t="n">
-        <v>455.7015641626709</v>
+        <v>227.139440627721</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>1816.647692308788</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1529.692184179218</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765503</v>
+        <v>1257.66577976551</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098915</v>
+        <v>1012.274025098922</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.899272227186</v>
+        <v>784.8543544130303</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.412671899186</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>944.2701990826092</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>508.3604142570537</v>
+        <v>861.8538908590303</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6260734557529</v>
+        <v>428.0791460173255</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2595.532426079462</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2595.532426079462</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2595.532426079462</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2232.915476013288</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.060021424322</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.957962044036</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.712242384094</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.5572028308845</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>819.9954913141095</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>654.1174985156322</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>484.3594947663694</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1929.213651316059</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1657.187246902351</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1411.795492235764</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1184.375821549872</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>205.200085969294</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3271.658179390882</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N11" t="n">
         <v>4397.38916282733</v>
@@ -5062,31 +5062,31 @@
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>1011.5609971334</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>838.9992856166245</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
         <v>673.1212928181459</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2567.666782197596</v>
       </c>
       <c r="T13" t="n">
-        <v>2683.3639582443</v>
+        <v>2321.787335776051</v>
       </c>
       <c r="U13" t="n">
-        <v>2404.930957497405</v>
+        <v>2043.354335029157</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1756.398826899587</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1484.372422485879</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1238.980667819291</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1011.5609971334</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.7810821021</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>911.2193705853248</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>745.3413777868475</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>575.5833740375847</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>398.8763199993409</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G16" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1748.411126173566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.599700821087</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5512,55 +5512,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>228.5247761102239</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>1303.584742363083</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2460.632577573634</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3586.363561010081</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4566.543227580388</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580388</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1011.5609971334</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>838.9992856166252</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181479</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181479</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799042</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057318</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2701.823733979953</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2455.944287558408</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2177.511286811513</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.529374268236</v>
+        <v>1484.372422485879</v>
       </c>
       <c r="X19" t="n">
-        <v>1373.137619601648</v>
+        <v>1238.980667819292</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1011.5609971334</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5752,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.772683270128</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.384174393664</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.146432354979</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>884.5847208382039</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>718.7067280397266</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>548.9487242904638</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>372.24167025222</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>206.6503952780477</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.384721759858</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1248.965051073966</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6885,19 +6885,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
         <v>1371.99516675259</v>
@@ -6925,49 +6925,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.363958244292</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,7 +7186,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993933</v>
@@ -7256,13 +7256,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>970.9960463903949</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>805.1180535919176</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>635.3600498426549</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7414,22 +7414,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785924</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3205.876241053794</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>3097.385403447489</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>2931.507410649012</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>2761.749406899749</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>2585.042352861506</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>4953.800644836977</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>4707.921198415433</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>4429.488197668538</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>4142.532689538969</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>3625.114530458673</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>3397.694859772781</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7657,16 +7657,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
         <v>4943.887948785924</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1320.078722343228</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1092.659051657336</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>604.9339300505458</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611337</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684628</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>65.06686390159848</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>103.9790360591055</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8701,7 +8701,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,13 +8935,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>127.5393291307518</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>315.3936483072347</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>7.907823718760341</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H16" t="n">
-        <v>8.789189859684171</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.907823718761392</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.15749310933383</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>52.42554389793631</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473348</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.38363054573608</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.43016517136545</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>88.19489769745806</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487878.1324796035</v>
+        <v>487878.1324796033</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
@@ -26331,10 +26331,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
         <v>461000.3861201833</v>
@@ -26346,10 +26346,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201836</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
         <v>461000.3861201833</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501598</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998295</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877237</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622427</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955548</v>
+        <v>138489.2977955544</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020262</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26450,7 +26450,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020275</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26484,7 +26484,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,10 +26502,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86080.42964671308</v>
+        <v>86080.42964671314</v>
       </c>
       <c r="C6" t="n">
-        <v>192095.6254055342</v>
+        <v>192095.625405534</v>
       </c>
       <c r="D6" t="n">
-        <v>252631.4845603469</v>
+        <v>252631.4845603474</v>
       </c>
       <c r="E6" t="n">
-        <v>173242.9595431384</v>
+        <v>173219.7352037559</v>
       </c>
       <c r="F6" t="n">
-        <v>355598.0687641881</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="G6" t="n">
-        <v>355598.0687641882</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="H6" t="n">
-        <v>355598.0687641883</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="I6" t="n">
-        <v>355598.0687641882</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="J6" t="n">
-        <v>244583.603419198</v>
+        <v>244560.3790798153</v>
       </c>
       <c r="K6" t="n">
-        <v>302552.2141254158</v>
+        <v>302528.9897860326</v>
       </c>
       <c r="L6" t="n">
-        <v>346205.7670375657</v>
+        <v>346182.5426981834</v>
       </c>
       <c r="M6" t="n">
-        <v>203397.8978262006</v>
+        <v>203374.6734868178</v>
       </c>
       <c r="N6" t="n">
-        <v>355598.0687641882</v>
+        <v>355574.8444248054</v>
       </c>
       <c r="O6" t="n">
-        <v>355598.0687641882</v>
+        <v>355574.8444248055</v>
       </c>
       <c r="P6" t="n">
-        <v>355598.0687641882</v>
+        <v>355574.8444248055</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26804,7 +26804,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939396</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939396</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939396</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>387.5707836436601</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945167</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27441,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.63025464585155</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27599,7 +27599,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>59.71938613977548</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27618,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>114.198288079981</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>216.1325250833256</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>140.8783988682111</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.2544686360208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>52.65760510107435</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.032238729555061</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>248.5691704774791</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28253,7 +28253,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.301498202526867e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28383,10 +28383,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.20586044342689e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28739,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.015327879036348e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>604.9339300505458</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611337</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684628</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>65.06686390159848</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>103.9790360591055</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35421,7 +35421,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35655,13 +35655,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>127.5393291307518</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36047,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>315.3936483072347</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,25 +37782,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
